--- a/data/Simulations/PT1/Distribution_Network_PT1/Raw Data/Load_growth_for_simulations.xlsx
+++ b/data/Simulations/PT1/Distribution_Network_PT1/Raw Data/Load_growth_for_simulations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inesctecpt-my.sharepoint.com/personal/filipe_j_soares_office365_inesctec_pt/Documents/8_Ongoing projects/2019 ATTEST LC-SC3-ES-6-2019 - subtopic 2/ATTEST Cloud/Simulations Map/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\PT1\Distribution_Network_PT1\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_F25DC773A252ABDACC1048FB691F6AE85BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB0FB13E-0095-4CFC-B6C4-8DB0F4AFC2BA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A69FD64-D9D2-4458-877E-A7898A24BAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +117,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -193,6 +199,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +483,7 @@
   <dimension ref="C2:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H7"/>
+      <selection activeCell="L4" sqref="L4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,15 +548,15 @@
         <f t="shared" ref="K4:M4" si="0">D4/$D4</f>
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="12">
         <f t="shared" si="0"/>
         <v>1.1688498151207616</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="12">
         <f t="shared" si="0"/>
         <v>1.4360986547085202</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="12">
         <f>G4/$D4</f>
         <v>1.7040358744394619</v>
       </c>
